--- a/biology/Zoologie/Atractus_imperfectus/Atractus_imperfectus.xlsx
+++ b/biology/Zoologie/Atractus_imperfectus/Atractus_imperfectus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atractus imperfectus  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atractus imperfectus  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Panama au Panama[1]. Elle se rencontre dans la Serranía Piedras-Pacora.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Panama au Panama. Elle se rencontre dans la Serranía Piedras-Pacora.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Atractus imperfectus[2] est incomplet, ne comportant que la tête et le cou de l'animal. Il a été découvert lors de relevés géodésiques dans la province de Panama. Pour autant cette espèce se différencie morphologiquement des autres espèces panaméennes du genre Atractus.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Atractus imperfectus est incomplet, ne comportant que la tête et le cou de l'animal. Il a été découvert lors de relevés géodésiques dans la province de Panama. Pour autant cette espèce se différencie morphologiquement des autres espèces panaméennes du genre Atractus.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du latin imperfectus, « imparfait », lui a été donné en référence à la mauvaise qualité de l'holotype[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du latin imperfectus, « imparfait », lui a été donné en référence à la mauvaise qualité de l'holotype.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Myers, 2003 : Rare Snakes—Five New Species from Eastern Panama: Reviews of Northern Atractus and Southern Geophis (Colubridae: Dipsadinae). American Museum Novitates, no 3391, p. 1-47 (texte intégral).</t>
         </is>
